--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>Parameter</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Million tonnes CO2 equivalent (MtCO2-e)</t>
+  </si>
+  <si>
+    <t>Kea renewable</t>
+  </si>
+  <si>
+    <t>Tui renewable</t>
+  </si>
+  <si>
+    <t>Kea Renewable energy</t>
+  </si>
+  <si>
+    <t>Tui Renewable energy</t>
+  </si>
+  <si>
+    <t>Kea Electrification</t>
+  </si>
+  <si>
+    <t>Tui Electrification</t>
   </si>
 </sst>
 </file>
@@ -403,14 +421,14 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -794,8 +812,8 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -845,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -895,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -944,8 +962,8 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -994,8 +1012,8 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwarc\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Parameter</t>
   </si>
@@ -65,25 +65,10 @@
     <t>Electrification percentage</t>
   </si>
   <si>
-    <t>Million tonnes CO2 equivalent (MtCO2-e)</t>
+    <t>MtCO2</t>
   </si>
   <si>
-    <t>Kea renewable</t>
-  </si>
-  <si>
-    <t>Tui renewable</t>
-  </si>
-  <si>
-    <t>Kea Renewable energy</t>
-  </si>
-  <si>
-    <t>Tui Renewable energy</t>
-  </si>
-  <si>
-    <t>Kea Electrification</t>
-  </si>
-  <si>
-    <t>Tui Electrification</t>
+    <t>All Energy Related Annual Emissions</t>
   </si>
 </sst>
 </file>
@@ -130,13 +115,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +407,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,31 +473,31 @@
         <v>13</v>
       </c>
       <c r="E2" s="1">
-        <v>30.116179000000002</v>
+        <v>29.365900000000003</v>
       </c>
       <c r="F2" s="1">
-        <v>157.82346900000002</v>
+        <v>219.69620000000003</v>
       </c>
       <c r="G2" s="1">
-        <v>268.93459900000005</v>
+        <v>331.06970000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>357.40612400000003</v>
+        <v>422.786</v>
       </c>
       <c r="I2" s="1">
-        <v>421.61080400000003</v>
+        <v>492.05249999999995</v>
       </c>
       <c r="J2" s="1">
-        <v>467.50040900000005</v>
+        <v>539.9351999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>504.34764400000006</v>
+        <v>575.15069999999969</v>
       </c>
       <c r="L2" s="1">
-        <v>539.18168900000001</v>
+        <v>607.90877999999975</v>
       </c>
       <c r="M2" s="1">
-        <v>575.41438900000003</v>
+        <v>642.35439999999971</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -528,39 +514,39 @@
         <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>30.116179000000002</v>
+        <v>29.365900000000003</v>
       </c>
       <c r="F3" s="1">
-        <v>165.51726500000001</v>
+        <v>225.92420000000004</v>
       </c>
       <c r="G3" s="1">
-        <v>298.11026870000001</v>
+        <v>356.08070000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>420.12271420000002</v>
+        <v>479.14320000000009</v>
       </c>
       <c r="I3" s="1">
-        <v>518.22891920000006</v>
+        <v>583.53270000000009</v>
       </c>
       <c r="J3" s="1">
-        <v>596.2207942</v>
+        <v>665.76019999999994</v>
       </c>
       <c r="K3" s="1">
-        <v>653.53632419999997</v>
+        <v>726.38069999999982</v>
       </c>
       <c r="L3" s="1">
-        <v>703.25692419999996</v>
+        <v>773.67619999999988</v>
       </c>
       <c r="M3" s="1">
-        <v>753.87379919999989</v>
+        <v>818.93661999999995</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -569,31 +555,31 @@
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>16.765550000000001</v>
+        <v>29.365900000000003</v>
       </c>
       <c r="F4" s="3">
-        <v>16.607039999999998</v>
+        <v>24.288899999999998</v>
       </c>
       <c r="G4" s="3">
-        <v>15.27211</v>
+        <v>20.931899999999995</v>
       </c>
       <c r="H4" s="3">
-        <v>12.35798</v>
+        <v>16.617500000000003</v>
       </c>
       <c r="I4" s="3">
-        <v>8.4082429999999988</v>
+        <v>12.010499999999999</v>
       </c>
       <c r="J4" s="3">
-        <v>5.3944000000000001</v>
+        <v>7.9538999999999973</v>
       </c>
       <c r="K4" s="3">
-        <v>3.6709999999999998</v>
+        <v>6.4358999999999993</v>
       </c>
       <c r="L4" s="3">
-        <v>3.3920244000000004</v>
+        <v>6.6287600000000007</v>
       </c>
       <c r="M4" s="3">
-        <v>3.5980262000000001</v>
+        <v>7.0626999999999995</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -607,10 +593,10 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -619,31 +605,31 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>16.765550000000001</v>
+        <v>29.365900000000003</v>
       </c>
       <c r="F5" s="3">
-        <v>16.671140000000001</v>
+        <v>26.364899999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>16.831410000000002</v>
+        <v>25.808900000000001</v>
       </c>
       <c r="H5" s="3">
-        <v>15.60558</v>
+        <v>23.814900000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>11.862143</v>
+        <v>18.919900000000002</v>
       </c>
       <c r="J5" s="3">
-        <v>8.7243999999999993</v>
+        <v>14.7959</v>
       </c>
       <c r="K5" s="3">
-        <v>6.1180000000000003</v>
+        <v>10.3429</v>
       </c>
       <c r="L5" s="3">
-        <v>4.806</v>
+        <v>8.8698999999999995</v>
       </c>
       <c r="M5" s="3">
-        <v>5.0740384999999995</v>
+        <v>9.1735399999999991</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -657,10 +643,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -669,31 +655,31 @@
         <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>6.2065999999999999</v>
+        <v>15.877229999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>4.1820192</v>
+        <v>15.663929999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3.6719181299999999</v>
+        <v>13.693000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>2.7000529999999996</v>
+        <v>10.75507</v>
       </c>
       <c r="I6" s="1">
-        <v>2.6410581</v>
+        <v>6.7511420000000006</v>
       </c>
       <c r="J6" s="1">
-        <v>2.3522658000000001</v>
+        <v>3.6319999999999997</v>
       </c>
       <c r="K6" s="1">
-        <v>2.3101581000000002</v>
+        <v>2.181</v>
       </c>
       <c r="L6" s="1">
-        <v>2.4857407999999999</v>
+        <v>2.0860019599999999</v>
       </c>
       <c r="M6" s="1">
-        <v>2.6720836000000001</v>
+        <v>2.161</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -707,10 +693,10 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -719,31 +705,31 @@
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>6.2065999999999999</v>
+        <v>15.877229999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>5.4109366000000003</v>
+        <v>15.826930000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>5.5191075999999999</v>
+        <v>15.878</v>
       </c>
       <c r="H7" s="1">
-        <v>5.2646560000000004</v>
+        <v>14.511070000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>5.1022170999999998</v>
+        <v>10.575142</v>
       </c>
       <c r="J7" s="1">
-        <v>4.4916939000000005</v>
+        <v>7.3199999999999994</v>
       </c>
       <c r="K7" s="1">
-        <v>2.7277445</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="L7" s="1">
-        <v>2.7098307999999998</v>
+        <v>3.1739999999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>2.7342316000000002</v>
+        <v>3.3290373999999998</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -757,43 +743,43 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
-        <v>0.83925741453475233</v>
+        <v>6.6215900000000003</v>
       </c>
       <c r="F8" s="5">
-        <v>0.94434910268158423</v>
+        <v>4.5558499999999995</v>
       </c>
       <c r="G8" s="5">
-        <v>0.97720762620506962</v>
+        <v>4.0411979999999996</v>
       </c>
       <c r="H8" s="5">
-        <v>0.99037778142255739</v>
+        <v>3.0587550000000001</v>
       </c>
       <c r="I8" s="5">
-        <v>0.99536060941147564</v>
+        <v>3.0094229999999995</v>
       </c>
       <c r="J8" s="5">
-        <v>0.99854266030736616</v>
+        <v>2.7002289999999998</v>
       </c>
       <c r="K8" s="5">
-        <v>0.99868031672398616</v>
+        <v>2.6901289999999993</v>
       </c>
       <c r="L8" s="5">
-        <v>0.99875014202931467</v>
+        <v>2.8717789999999996</v>
       </c>
       <c r="M8" s="5">
-        <v>0.99885097493036201</v>
+        <v>3.0414889999999999</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -807,43 +793,43 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
-        <v>0.83952893979099952</v>
+        <v>6.6215900000000003</v>
       </c>
       <c r="F9" s="5">
-        <v>0.94674943759432739</v>
+        <v>6.1111700000000004</v>
       </c>
       <c r="G9" s="5">
-        <v>0.969990542164055</v>
+        <v>6.138992</v>
       </c>
       <c r="H9" s="5">
-        <v>0.98092705515565515</v>
+        <v>5.9423329999999996</v>
       </c>
       <c r="I9" s="5">
-        <v>0.98047610892276071</v>
+        <v>5.8436009999999996</v>
       </c>
       <c r="J9" s="5">
-        <v>0.98030037058708819</v>
+        <v>5.2203439999999999</v>
       </c>
       <c r="K9" s="5">
-        <v>0.97002012782937252</v>
+        <v>3.6111000000000004</v>
       </c>
       <c r="L9" s="5">
-        <v>0.966136788672188</v>
+        <v>3.5608500000000003</v>
       </c>
       <c r="M9" s="5">
-        <v>0.96497545008183305</v>
+        <v>3.58066</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -857,43 +843,43 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="5">
-        <v>0.4041430626742199</v>
+        <v>0.83979328165374667</v>
       </c>
       <c r="F10" s="5">
-        <v>0.48839370149917938</v>
+        <v>0.95278812679411229</v>
       </c>
       <c r="G10" s="5">
-        <v>0.50209254814844195</v>
+        <v>0.96343873517786571</v>
       </c>
       <c r="H10" s="5">
-        <v>0.59656239044520254</v>
+        <v>0.96521001272804408</v>
       </c>
       <c r="I10" s="5">
-        <v>0.62965380863146281</v>
+        <v>0.95682721641860036</v>
       </c>
       <c r="J10" s="5">
-        <v>0.65512438157295327</v>
+        <v>0.94370190360469819</v>
       </c>
       <c r="K10" s="5">
-        <v>0.67652910669052857</v>
+        <v>0.94479436828454988</v>
       </c>
       <c r="L10" s="5">
-        <v>0.68901098992927945</v>
+        <v>0.93870402802101571</v>
       </c>
       <c r="M10" s="5">
-        <v>0.70631239705901128</v>
+        <v>0.93240093240093236</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -907,43 +893,43 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5">
-        <v>0.40405223176158578</v>
+        <v>0.83979328200000003</v>
       </c>
       <c r="F11" s="5">
-        <v>0.48841833138468421</v>
+        <v>0.956000921</v>
       </c>
       <c r="G11" s="5">
-        <v>0.50935506347447879</v>
+        <v>0.96546027199999995</v>
       </c>
       <c r="H11" s="5">
-        <v>0.52805945688381939</v>
+        <v>0.96683165999999998</v>
       </c>
       <c r="I11" s="5">
-        <v>0.54884495193870508</v>
+        <v>0.96659046199999998</v>
       </c>
       <c r="J11" s="5">
-        <v>0.5655737383942453</v>
+        <v>0.96411158799999996</v>
       </c>
       <c r="K11" s="5">
-        <v>0.63067788850798667</v>
+        <v>0.96482412100000003</v>
       </c>
       <c r="L11" s="5">
-        <v>0.62807610146780468</v>
+        <v>0.96424010199999999</v>
       </c>
       <c r="M11" s="5">
-        <v>0.61784341427088563</v>
+        <v>0.96430807799999996</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -957,43 +943,43 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.34752944879057601</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.36352342815620386</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.35776072003931653</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.42920841775065782</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.43897952658601119</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.45825375852471584</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.48084106228070495</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.49030035190837468</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.50474234607968282</v>
+      <c r="E12" s="6">
+        <v>0.34957057149924425</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.40043809952596865</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.39831866706517915</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.48038031794073582</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.56530662991283709</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.69549928802795724</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.78460467473430284</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.82560089174788087</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.82733176380532625</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1007,43 +993,43 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4">
-        <v>0.34733896705173722</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.36724889094327862</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.38013016365739927</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.39203308816062227</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.38934466538129808</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.40153659997885416</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.45665796803571607</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.45992151967015427</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.45255819816953163</v>
+      <c r="E13" s="6">
+        <v>0.34957052366558528</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.38868143795872168</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.42461404582117307</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.45278794852594384</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.5037796636235593</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.58609163059985558</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.67310152779602794</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.75686741544660596</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.7813556535874332</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1056,26 +1042,86 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.24769139965247816</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.27063068339003904</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.28864839311426027</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.3589048113954118</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.45303100224984222</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.54093063180220724</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.58914244816641026</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.59325527893564756</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.59332349857917732</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.24769368859703259</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.26688357843314325</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.28696533869628926</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.31846395412854256</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.39193745434876676</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.45152175271832123</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.53515740124691846</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.56630963934986067</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.56537733282624458</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T16" s="1"/>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwarc\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>Kea</t>
   </si>
   <si>
-    <t>Tui</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>All Energy Related Annual Emissions</t>
+  </si>
+  <si>
+    <t>Tūī</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -461,16 +461,16 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>29.365900000000003</v>
@@ -502,16 +502,16 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>29.365900000000003</v>
@@ -543,16 +543,16 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>29.365900000000003</v>
@@ -593,16 +593,16 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>29.365900000000003</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>15.877229999999999</v>
@@ -693,16 +693,16 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>15.877229999999999</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5">
         <v>6.6215900000000003</v>
@@ -793,16 +793,16 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <v>6.6215900000000003</v>
@@ -843,16 +843,16 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5">
         <v>0.83979328165374667</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>0.83979328200000003</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <v>0.34957057149924425</v>
@@ -993,16 +993,16 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E13" s="6">
         <v>0.34957052366558528</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>0.24769139965247816</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5">
         <v>0.24769368859703259</v>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwarc\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Parameter</t>
   </si>
@@ -41,15 +41,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Transport emissions</t>
-  </si>
-  <si>
-    <t>Renewable electricity percentage</t>
-  </si>
-  <si>
-    <t>Renewable energy percentage</t>
-  </si>
-  <si>
     <t>Percent</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>Industrial Emissions</t>
   </si>
   <si>
-    <t>Electrification percentage</t>
-  </si>
-  <si>
     <t>MtCO2</t>
   </si>
   <si>
@@ -69,6 +57,15 @@
   </si>
   <si>
     <t>Tūī</t>
+  </si>
+  <si>
+    <t>Transport Emissions</t>
+  </si>
+  <si>
+    <t>Renewable Electricity Percentage</t>
+  </si>
+  <si>
+    <t>Electrification Percentage</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,16 +458,16 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>29.365900000000003</v>
@@ -502,16 +499,16 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>29.365900000000003</v>
@@ -543,16 +540,16 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>29.365900000000003</v>
@@ -593,16 +590,16 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>29.365900000000003</v>
@@ -643,16 +640,16 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>15.877229999999999</v>
@@ -692,17 +689,17 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>15.877229999999999</v>
@@ -743,16 +740,16 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <v>6.6215900000000003</v>
@@ -793,16 +790,16 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>6.6215900000000003</v>
@@ -843,16 +840,16 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
         <v>0.83979328165374667</v>
@@ -893,16 +890,16 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>0.83979328200000003</v>
@@ -942,17 +939,17 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>0.34957057149924425</v>
@@ -992,17 +989,17 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
         <v>0.34957052366558528</v>
@@ -1043,16 +1040,16 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5">
         <v>0.24769139965247816</v>
@@ -1083,17 +1080,17 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5">
         <v>0.24769368859703259</v>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Parameter</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Electrification Percentage</t>
+  </si>
+  <si>
+    <t>Renewable Energy Percentage</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,10 +943,10 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -990,10 +993,10 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwarc\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>Parameter</t>
   </si>
@@ -62,13 +62,19 @@
     <t>Transport Emissions</t>
   </si>
   <si>
-    <t>Renewable Electricity Percentage</t>
-  </si>
-  <si>
-    <t>Electrification Percentage</t>
-  </si>
-  <si>
-    <t>Renewable Energy Percentage</t>
+    <t>Electricity Generation from Solar</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable Electricity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable Energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrification </t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,144 +648,158 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>15.877229999999999</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>15.663929999999999</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="G6" s="1">
-        <v>13.693000000000001</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>10.75507</v>
+        <v>0.998</v>
       </c>
       <c r="I6" s="1">
-        <v>6.7511420000000006</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J6" s="1">
-        <v>3.6319999999999997</v>
+        <v>7.8719999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>2.181</v>
+        <v>19.326999999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>2.0860019599999999</v>
+        <v>23.927</v>
       </c>
       <c r="M6" s="1">
-        <v>2.161</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+        <v>31.326999999999998</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.8660000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>29.117999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>47.218000000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>49.518000000000001</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15.877229999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15.826930000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15.878</v>
-      </c>
-      <c r="H7" s="1">
-        <v>14.511070000000002</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10.575142</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7.3199999999999994</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4.5780000000000003</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3.1739999999999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.3290373999999998</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
-        <v>6.6215900000000003</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4.5558499999999995</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4.0411979999999996</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3.0587550000000001</v>
-      </c>
-      <c r="I8" s="5">
-        <v>3.0094229999999995</v>
-      </c>
-      <c r="J8" s="5">
-        <v>2.7002289999999998</v>
-      </c>
-      <c r="K8" s="5">
-        <v>2.6901289999999993</v>
-      </c>
-      <c r="L8" s="5">
-        <v>2.8717789999999996</v>
-      </c>
-      <c r="M8" s="5">
-        <v>3.0414889999999999</v>
+      <c r="E8" s="1">
+        <v>15.877229999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15.663929999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13.693000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.75507</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.7511420000000006</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.6319999999999997</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.181</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.0860019599999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.161</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -793,43 +813,43 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
-        <v>6.6215900000000003</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6.1111700000000004</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6.138992</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5.9423329999999996</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5.8436009999999996</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5.2203439999999999</v>
-      </c>
-      <c r="K9" s="5">
-        <v>3.6111000000000004</v>
-      </c>
-      <c r="L9" s="5">
-        <v>3.5608500000000003</v>
-      </c>
-      <c r="M9" s="5">
-        <v>3.58066</v>
+      <c r="E9" s="1">
+        <v>15.877229999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15.826930000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15.878</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14.511070000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10.575142</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7.3199999999999994</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.3290373999999998</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -842,44 +862,44 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="5">
-        <v>0.83979328165374667</v>
+        <v>6.6215900000000003</v>
       </c>
       <c r="F10" s="5">
-        <v>0.95278812679411229</v>
+        <v>4.5558499999999995</v>
       </c>
       <c r="G10" s="5">
-        <v>0.96343873517786571</v>
+        <v>4.0411979999999996</v>
       </c>
       <c r="H10" s="5">
-        <v>0.96521001272804408</v>
+        <v>3.0587550000000001</v>
       </c>
       <c r="I10" s="5">
-        <v>0.95682721641860036</v>
+        <v>3.0094229999999995</v>
       </c>
       <c r="J10" s="5">
-        <v>0.94370190360469819</v>
+        <v>2.7002289999999998</v>
       </c>
       <c r="K10" s="5">
-        <v>0.94479436828454988</v>
+        <v>2.6901289999999993</v>
       </c>
       <c r="L10" s="5">
-        <v>0.93870402802101571</v>
+        <v>2.8717789999999996</v>
       </c>
       <c r="M10" s="5">
-        <v>0.93240093240093236</v>
+        <v>3.0414889999999999</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -893,43 +913,43 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>0.83979328200000003</v>
+        <v>6.6215900000000003</v>
       </c>
       <c r="F11" s="5">
-        <v>0.956000921</v>
+        <v>6.1111700000000004</v>
       </c>
       <c r="G11" s="5">
-        <v>0.96546027199999995</v>
+        <v>6.138992</v>
       </c>
       <c r="H11" s="5">
-        <v>0.96683165999999998</v>
+        <v>5.9423329999999996</v>
       </c>
       <c r="I11" s="5">
-        <v>0.96659046199999998</v>
+        <v>5.8436009999999996</v>
       </c>
       <c r="J11" s="5">
-        <v>0.96411158799999996</v>
+        <v>5.2203439999999999</v>
       </c>
       <c r="K11" s="5">
-        <v>0.96482412100000003</v>
+        <v>3.6111000000000004</v>
       </c>
       <c r="L11" s="5">
-        <v>0.96424010199999999</v>
+        <v>3.5608500000000003</v>
       </c>
       <c r="M11" s="5">
-        <v>0.96430807799999996</v>
+        <v>3.58066</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -942,7 +962,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -954,32 +974,32 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6">
-        <v>0.34957057149924425</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.40043809952596865</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.39831866706517915</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.48038031794073582</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.56530662991283709</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.69549928802795724</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.78460467473430284</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.82560089174788087</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0.82733176380532625</v>
+      <c r="E12" s="5">
+        <v>0.83979328165374667</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.95278812679411229</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.96343873517786571</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.96521001272804408</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.95682721641860036</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.94370190360469819</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.94479436828454988</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.93870402802101571</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.93240093240093236</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1004,32 +1024,32 @@
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6">
-        <v>0.34957052366558528</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.38868143795872168</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.42461404582117307</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.45278794852594384</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.5037796636235593</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.58609163059985558</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.67310152779602794</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.75686741544660596</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.7813556535874332</v>
+      <c r="E13" s="5">
+        <v>0.83979328200000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.956000921</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.96546027199999995</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.96683165999999998</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.96659046199999998</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.96411158799999996</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.96482412100000003</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.96424010199999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.96430807799999996</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1042,124 +1062,188 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.24769139965247816</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.27063068339003904</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.28864839311426027</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.3589048113954118</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.45303100224984222</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.54093063180220724</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.58914244816641026</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0.59325527893564756</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.59332349857917732</v>
-      </c>
+      <c r="E14" s="6">
+        <v>0.34957057149924425</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.40043809952596865</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.39831866706517915</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.48038031794073582</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.56530662991283709</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.69549928802795724</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.78460467473430284</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.82560089174788087</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.82733176380532625</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
+        <v>0.34957052366558528</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.38868143795872168</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.42461404582117307</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.45278794852594384</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.5037796636235593</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.58609163059985558</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.67310152779602794</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.75686741544660596</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.7813556535874332</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.24769139965247816</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.27063068339003904</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.28864839311426027</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.3589048113954118</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.45303100224984222</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.54093063180220724</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.58914244816641026</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.59325527893564756</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.59332349857917732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
         <v>0.24769368859703259</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F17" s="5">
         <v>0.26688357843314325</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G17" s="5">
         <v>0.28696533869628926</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H17" s="5">
         <v>0.31846395412854256</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I17" s="5">
         <v>0.39193745434876676</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J17" s="5">
         <v>0.45152175271832123</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K17" s="5">
         <v>0.53515740124691846</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L17" s="5">
         <v>0.56630963934986067</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M17" s="5">
         <v>0.56537733282624458</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="T17" s="1"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T18" s="1"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1177,7 +1261,7 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -1189,7 +1273,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1207,7 +1291,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T22" s="1"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -1225,7 +1309,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T23" s="1"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -1237,7 +1321,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -1249,7 +1333,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1267,7 +1351,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="T26" s="1"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -1285,7 +1369,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1300,7 +1384,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1315,7 +1399,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1339,7 +1423,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1363,7 +1447,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1382,7 +1466,7 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>

--- a/TIMES_shiny/data_cleaning/Key-Insight.xlsx
+++ b/TIMES_shiny/data_cleaning/Key-Insight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>Parameter</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t xml:space="preserve">Electrification </t>
+  </si>
+  <si>
+    <t>All energy related cumulative emissions</t>
+  </si>
+  <si>
+    <t>All energy related annual emissions</t>
+  </si>
+  <si>
+    <t>Electricity generation from solar</t>
+  </si>
+  <si>
+    <t>Transport emissions</t>
+  </si>
+  <si>
+    <t>Industrial emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable electricity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable energy </t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +488,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -507,8 +528,8 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -549,7 +570,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -598,8 +619,8 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -649,7 +670,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -706,7 +727,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -763,7 +784,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -813,7 +834,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -863,7 +884,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -913,7 +934,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -963,7 +984,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1013,7 +1034,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1063,7 +1084,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1113,7 +1134,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
